--- a/data/case1/15/Plm2_14.xlsx
+++ b/data/case1/15/Plm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.044464104359889234</v>
+        <v>-0.078222337956418642</v>
       </c>
       <c r="B1" s="0">
-        <v>0.044247458876995438</v>
+        <v>0.0778929003770088</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.020392149670268367</v>
+        <v>0.031272088310627666</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.021158902399742274</v>
+        <v>-0.031921065558259798</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14976306901835912</v>
+        <v>0.16034575632048842</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.15045890718854338</v>
+        <v>-0.16107651537648238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13352378458327863</v>
+        <v>-0.12291883288645167</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13294578764234188</v>
+        <v>0.1224435237023549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12694578861445205</v>
+        <v>-0.11644352391616941</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12580072818856802</v>
+        <v>0.11551494290603159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.047809426674028987</v>
+        <v>-0.071017594737609713</v>
       </c>
       <c r="B6" s="0">
-        <v>0.047779066164303607</v>
+        <v>0.07093707876593891</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.027779067328884466</v>
+        <v>-0.050937079027070453</v>
       </c>
       <c r="B7" s="0">
-        <v>0.027744204935054029</v>
+        <v>0.050775613786452567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.007744206103716067</v>
+        <v>-0.030775614049552757</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0077397174145881209</v>
+        <v>0.030684066090749695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0017397184202669891</v>
+        <v>-0.024684066314523356</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0017375672105268691</v>
+        <v>0.024619167735600023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0042624317832675729</v>
+        <v>-0.018619167960864047</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0042606529002142679</v>
+        <v>0.018611950075914763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0087606519116540937</v>
+        <v>-0.01411195029643153</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.008760920447077325</v>
+        <v>0.014103695164333629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.014760919441210607</v>
+        <v>-0.01999745388366847</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.01480128582415885</v>
+        <v>0.019954735895569176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.020801284822799637</v>
+        <v>-0.013954736122401279</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.020826874543101503</v>
+        <v>0.013944273701665288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.032826873473435825</v>
+        <v>-0.0019442739465329595</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.032891931805268726</v>
+        <v>0.001931553646908668</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.03889193081015474</v>
+        <v>0.0040684461257889382</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.038997571495402283</v>
+        <v>-0.0040871141392173627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015025181187671155</v>
+        <v>-0.015026565410077186</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015003547679212303</v>
+        <v>0.015004388730808227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090035486723509806</v>
+        <v>-0.0090043889590054604</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999998970693035</v>
+        <v>0.0089999997627048245</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.054639609567558978</v>
+        <v>-0.099164988914200336</v>
       </c>
       <c r="B18" s="0">
-        <v>0.054603131700226015</v>
+        <v>0.09900007035671976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095613725531376</v>
+        <v>-0.090000070581165659</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012690719323995</v>
+        <v>0.088691104133204579</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012691737213871</v>
+        <v>-0.018014277369220011</v>
       </c>
       <c r="B20" s="0">
-        <v>0.01800412461153833</v>
+        <v>0.018004376464197058</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041256307200612</v>
+        <v>-0.0090043766963940897</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999989799185443</v>
+        <v>0.008999999767531186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.11960416762586235</v>
+        <v>-0.11942469098531383</v>
       </c>
       <c r="B22" s="0">
-        <v>0.11909138815183162</v>
+        <v>0.11892420860936781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.11009138917047689</v>
+        <v>-0.10992420883516463</v>
       </c>
       <c r="B23" s="0">
-        <v>0.10921732588077848</v>
+        <v>0.10907573633796286</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124998040555361</v>
+        <v>-0.042125447349862455</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998562132212</v>
+        <v>0.041999999670036203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.071991302512458333</v>
+        <v>-0.038497348387664942</v>
       </c>
       <c r="B25" s="0">
-        <v>0.07188688530677112</v>
+        <v>0.038473154992868075</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.065886886307609416</v>
+        <v>-0.032473155212390026</v>
       </c>
       <c r="B26" s="0">
-        <v>0.065754896100646221</v>
+        <v>0.032447639344251655</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.059754897105576354</v>
+        <v>-0.026447639564196379</v>
       </c>
       <c r="B27" s="0">
-        <v>0.059311912740962924</v>
+        <v>0.026377846841088903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.053311913761534768</v>
+        <v>-0.020377847062522214</v>
       </c>
       <c r="B28" s="0">
-        <v>0.053022745795405335</v>
+        <v>0.02034307738720198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.041022746896906881</v>
+        <v>-0.0083430776271189444</v>
       </c>
       <c r="B29" s="0">
-        <v>0.04090305968494512</v>
+        <v>0.0083387921458957237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.020903060885223645</v>
+        <v>-0.042159446496799813</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02085900564138532</v>
+        <v>0.042019034498039787</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.037074520245409914</v>
+        <v>-0.027019034749162785</v>
       </c>
       <c r="B31" s="0">
-        <v>0.037025292285202127</v>
+        <v>0.027000854655083728</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004236512716247</v>
+        <v>-0.0060008549242827058</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999989569758938</v>
+        <v>0.0059999997748310108</v>
       </c>
     </row>
   </sheetData>
